--- a/data/trans_dic/P1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.07232143308065897</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05708003028217873</v>
+        <v>0.05708003028217872</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02192529213251807</v>
+        <v>0.02280295564161458</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.007123847516017402</v>
+        <v>0.006333709906800432</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04778290919138567</v>
+        <v>0.04822736222435246</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03246404906802893</v>
+        <v>0.03183318803892064</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.008102769358799911</v>
+        <v>0.009938322951543241</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02208668165782999</v>
+        <v>0.02235925486672981</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04806383753811818</v>
+        <v>0.04932868208494443</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0237375178353716</v>
+        <v>0.02508311941005243</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01834022816452928</v>
+        <v>0.01782398099751507</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01682291194208124</v>
+        <v>0.0168447165553567</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05341577834403993</v>
+        <v>0.05649666431262349</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03653825354577581</v>
+        <v>0.03473916267635282</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06139885020040776</v>
+        <v>0.06115323989310829</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03277697714583604</v>
+        <v>0.03130080272867383</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1020910051012151</v>
+        <v>0.1054287889191397</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1142024580614994</v>
+        <v>0.119474052354511</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03358809299460216</v>
+        <v>0.03388459151683444</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06491305263226371</v>
+        <v>0.06199533711305848</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1022788922137414</v>
+        <v>0.1007531412351848</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08051922317750909</v>
+        <v>0.0796311136472722</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04162656476300637</v>
+        <v>0.04158942271343102</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.040115880674821</v>
+        <v>0.04000722492907755</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0904204006211009</v>
+        <v>0.09392498866576628</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08911164916271104</v>
+        <v>0.08594457661369609</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.09036677043797035</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1224317588105628</v>
+        <v>0.1224317588105629</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05364442006800627</v>
+        <v>0.05132827028059329</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07752687257797226</v>
+        <v>0.07733377602924099</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0821476259134292</v>
+        <v>0.08443697268984937</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1211266642508379</v>
+        <v>0.1201565640628003</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02588906327042407</v>
+        <v>0.02645107902798384</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03072189771965475</v>
+        <v>0.03202042397459002</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0544842891249251</v>
+        <v>0.05446032071885266</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06528402229178513</v>
+        <v>0.06531404744651119</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04206618440765104</v>
+        <v>0.04395080516441595</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06120436069635018</v>
+        <v>0.06057693260557771</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07539528988122661</v>
+        <v>0.07503343510153135</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1002779783831665</v>
+        <v>0.09825113487519688</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09162552430386636</v>
+        <v>0.09176906868574475</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1250483775524794</v>
+        <v>0.1240317500899308</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1313877482607653</v>
+        <v>0.1389582823188915</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2062883728821099</v>
+        <v>0.2020474844608849</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05617096450085053</v>
+        <v>0.056806669636491</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06602072423776455</v>
+        <v>0.06921845207143641</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09780186321082925</v>
+        <v>0.09508199633634835</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1162510127744479</v>
+        <v>0.1183403773798358</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06916060596429047</v>
+        <v>0.06920256645642169</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09345733563467068</v>
+        <v>0.09249012716917286</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1081914525881298</v>
+        <v>0.1085146323809464</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1475731352838672</v>
+        <v>0.1491231870470124</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04358790882752455</v>
+        <v>0.04499412934814449</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0309453877622609</v>
+        <v>0.03286718150345106</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08610137695309869</v>
+        <v>0.08576046885292002</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1290719176046692</v>
+        <v>0.1289294263710907</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01160870675500644</v>
+        <v>0.01169721501875821</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.008335044293165634</v>
+        <v>0.008180217098026878</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03016840646766479</v>
+        <v>0.0317402895398509</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04365220320714121</v>
+        <v>0.04317621475364915</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03127265302244838</v>
+        <v>0.03023047361589762</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02299284850120178</v>
+        <v>0.02179806883728728</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0641056466315144</v>
+        <v>0.0636581350153692</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09029734834420032</v>
+        <v>0.09125541823045422</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0835034457268124</v>
+        <v>0.08357219808927725</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06446017891212921</v>
+        <v>0.06594010793269661</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1338790034819395</v>
+        <v>0.1348752203608921</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1919712213620252</v>
+        <v>0.1883949784795795</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03420584422386144</v>
+        <v>0.0341701371282318</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02902381125344315</v>
+        <v>0.0291094939460992</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06263466330240806</v>
+        <v>0.06374698728569121</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0768127676098134</v>
+        <v>0.07481027142328316</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05196769203298311</v>
+        <v>0.05306187220796298</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04245460933624473</v>
+        <v>0.04089895329923202</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09506313973881438</v>
+        <v>0.09344270306437934</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.125750944972164</v>
+        <v>0.127109120962832</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.05475079281329414</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.07410814172023276</v>
+        <v>0.07410814172023278</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.05453418011994167</v>
@@ -1105,7 +1105,7 @@
         <v>0.09185341722481391</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1386868390003191</v>
+        <v>0.1386868390003192</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04244700425557853</v>
+        <v>0.04154184310369968</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06360444192536842</v>
+        <v>0.06355424581246148</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1027303036459957</v>
+        <v>0.1017450988069747</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1746852057119062</v>
+        <v>0.1780817160772571</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03090303062498121</v>
+        <v>0.03208035859568064</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.031769991468522</v>
+        <v>0.03144242179935505</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0378947356279265</v>
+        <v>0.03665283543330827</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05989985878776456</v>
+        <v>0.05928021452564756</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04019289707091037</v>
+        <v>0.04057269144738518</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05477837337578277</v>
+        <v>0.05166619893301103</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07614990749653287</v>
+        <v>0.07523569092097838</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1229000926720839</v>
+        <v>0.1212406859796337</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0885503056558708</v>
+        <v>0.08734265100705429</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1145807555021874</v>
+        <v>0.1159545149919285</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1602744947202576</v>
+        <v>0.1584965565658202</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2407083401120669</v>
+        <v>0.2426665935959901</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06975601735518344</v>
+        <v>0.0729173021132298</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0689717720673073</v>
+        <v>0.06871375917213879</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0736369479084632</v>
+        <v>0.07537979846897362</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09012356633197581</v>
+        <v>0.08980546248843738</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07134787529955267</v>
+        <v>0.07171390324902992</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08691530709707147</v>
+        <v>0.08391305636966263</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1099283037436915</v>
+        <v>0.1111688540697587</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1574452440017363</v>
+        <v>0.1578048729853083</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04762455310018422</v>
+        <v>0.04352206259573229</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04843059299465505</v>
+        <v>0.04818906469662599</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08875281342063789</v>
+        <v>0.08674765526253821</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1698745094331926</v>
+        <v>0.1671815662736193</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06277895202471673</v>
+        <v>0.06026573343758897</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06048766523696968</v>
+        <v>0.06251543157542619</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1205295131055361</v>
+        <v>0.1197127192020497</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1476976725023311</v>
+        <v>0.1440931904476036</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06103316777517682</v>
+        <v>0.05916829291003773</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.06106155893358251</v>
+        <v>0.06153555786759081</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.113729803811209</v>
+        <v>0.1128782605347191</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.164524713237301</v>
+        <v>0.1627283603554597</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1011483237468197</v>
+        <v>0.09768356801544167</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09901897715833219</v>
+        <v>0.1022502926666039</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1524660144757614</v>
+        <v>0.1495667767556837</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2316492075180158</v>
+        <v>0.2307934886967984</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1191196440356146</v>
+        <v>0.1185244909884618</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1148815674008767</v>
+        <v>0.1194594196619452</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1897271368629124</v>
+        <v>0.1875118339650108</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1914634014504624</v>
+        <v>0.1907140604494724</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.09810796067480974</v>
+        <v>0.09959035759642539</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.09929590146960594</v>
+        <v>0.09910484405220243</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1580708306883842</v>
+        <v>0.1569125930041001</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2043609550100944</v>
+        <v>0.2035449762908893</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.2497195174690378</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3276930446156825</v>
+        <v>0.3276930446156824</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1606624208221984</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.06096565439146232</v>
+        <v>0.06207064126991409</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.08977048871620684</v>
+        <v>0.08068994074008071</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1214594600717028</v>
+        <v>0.1231040292400266</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1865036073721245</v>
+        <v>0.1828326219585559</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1787762638512509</v>
+        <v>0.1760370768359055</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1937721191565755</v>
+        <v>0.1896487119494677</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.204854554450241</v>
+        <v>0.2070741258623661</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2972931395292122</v>
+        <v>0.294966891419122</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1347776901719165</v>
+        <v>0.132669137811534</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1562126625103906</v>
+        <v>0.1565963056030413</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1787591491842677</v>
+        <v>0.1753633517966572</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.25113147635164</v>
+        <v>0.2493823892144579</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1329940819577285</v>
+        <v>0.1339286617004003</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1681029836819572</v>
+        <v>0.1672676924355082</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2092560343527827</v>
+        <v>0.2062144554598116</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2551287324626684</v>
+        <v>0.2514462438134268</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2577371268672115</v>
+        <v>0.2612737889871169</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2870278558443201</v>
+        <v>0.2878320729711014</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2951687736556983</v>
+        <v>0.2961636763379671</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3586850595636063</v>
+        <v>0.3599737423323286</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1919929874963923</v>
+        <v>0.1888239303552877</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.218776027730458</v>
+        <v>0.2222212100215004</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2421718731378014</v>
+        <v>0.2375685317995106</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2982538573099374</v>
+        <v>0.2999775950671497</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.4045675050920419</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.5596145747125151</v>
+        <v>0.559614574712515</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.2890063693527533</v>
@@ -1513,7 +1513,7 @@
         <v>0.3496731772594874</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.4591415093014021</v>
+        <v>0.459141509301402</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1575821801953181</v>
+        <v>0.1546488678939922</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1787160551452405</v>
+        <v>0.1763357178297306</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.216234420536726</v>
+        <v>0.2121048447658986</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.26429252276753</v>
+        <v>0.2639019771534133</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2846077347184847</v>
+        <v>0.2919134588171217</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3226368720563476</v>
+        <v>0.3208694222708643</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3508265197683597</v>
+        <v>0.3540578640474382</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5229839075324605</v>
+        <v>0.5245767740723036</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2494409051543518</v>
+        <v>0.2512266712319594</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2822796402811243</v>
+        <v>0.2752995228674261</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3122838645921008</v>
+        <v>0.3093006010632945</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4310125883272852</v>
+        <v>0.4330376397517753</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2699695132893216</v>
+        <v>0.2633235156837705</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2830582693770342</v>
+        <v>0.28282587482687</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3132272572216384</v>
+        <v>0.314461397685971</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3502104760198773</v>
+        <v>0.3561512334230283</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3947219645182258</v>
+        <v>0.4051411302655085</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4226751340813504</v>
+        <v>0.4261396528194505</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4608510547277376</v>
+        <v>0.4635858088575617</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5923258450371255</v>
+        <v>0.5899330733844983</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3279828381560514</v>
+        <v>0.3298696189667991</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3558932422559009</v>
+        <v>0.3560149304171858</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3899674967173188</v>
+        <v>0.389525454082195</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4863933723999618</v>
+        <v>0.4886808484271642</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.06363775814385855</v>
+        <v>0.06392091018881668</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.07353589179371658</v>
+        <v>0.07376566413983661</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.114175577339665</v>
+        <v>0.1143349401157984</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1707315394594008</v>
+        <v>0.1708704782635676</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.07788274767754579</v>
+        <v>0.07785665563343803</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.08966359619544415</v>
+        <v>0.08911999714698692</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1200827701813381</v>
+        <v>0.1210610439081573</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1658578430228926</v>
+        <v>0.166484069332754</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.07423037710159512</v>
+        <v>0.07372288706060959</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.08475446706629924</v>
+        <v>0.08439132617938079</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1206536784878991</v>
+        <v>0.1207326474957449</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1713751265729525</v>
+        <v>0.1716355767070825</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.08298529739842195</v>
+        <v>0.08253140945498448</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.09267017206440614</v>
+        <v>0.09285157762350343</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1377453698558985</v>
+        <v>0.137234416393485</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.19891789453748</v>
+        <v>0.1971518063532197</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.09787891872869575</v>
+        <v>0.09860053732673664</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1105599777961754</v>
+        <v>0.110909527501871</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1436277704509533</v>
+        <v>0.1449132054327391</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1862987730698107</v>
+        <v>0.1866452576155651</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.08694136937526339</v>
+        <v>0.08727319876414162</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.09880143431022401</v>
+        <v>0.09920536069947122</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1377004009364672</v>
+        <v>0.1380529621694524</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1881630531840626</v>
+        <v>0.1897720647703083</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10832</v>
+        <v>11266</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3235</v>
+        <v>2876</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>20043</v>
+        <v>20230</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>13239</v>
+        <v>12981</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3788</v>
+        <v>4646</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>9502</v>
+        <v>9620</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>19022</v>
+        <v>19522</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8605</v>
+        <v>9093</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>17635</v>
+        <v>17139</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>14878</v>
+        <v>14897</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>43546</v>
+        <v>46057</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>28146</v>
+        <v>26760</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>30335</v>
+        <v>30214</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14886</v>
+        <v>14215</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>42823</v>
+        <v>44223</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>46571</v>
+        <v>48721</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>15702</v>
+        <v>15841</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>27928</v>
+        <v>26672</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>40477</v>
+        <v>39874</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>29189</v>
+        <v>28867</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>40026</v>
+        <v>39990</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>35478</v>
+        <v>35381</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>73712</v>
+        <v>76569</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>68643</v>
+        <v>66204</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>39455</v>
+        <v>37751</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>53268</v>
+        <v>53135</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>48508</v>
+        <v>49860</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>57764</v>
+        <v>57301</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>16193</v>
+        <v>16545</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>18748</v>
+        <v>19541</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>30704</v>
+        <v>30691</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>32755</v>
+        <v>32770</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>57251</v>
+        <v>59816</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>79403</v>
+        <v>78589</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>87009</v>
+        <v>86592</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>98134</v>
+        <v>96151</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>67390</v>
+        <v>67495</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>85919</v>
+        <v>85221</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>77584</v>
+        <v>82054</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>98377</v>
+        <v>96354</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>35135</v>
+        <v>35532</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>40289</v>
+        <v>42241</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>55116</v>
+        <v>53583</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>58327</v>
+        <v>59375</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>94126</v>
+        <v>94183</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>121246</v>
+        <v>119991</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>124857</v>
+        <v>125230</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>144418</v>
+        <v>145935</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>27838</v>
+        <v>28736</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>21101</v>
+        <v>22411</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>57610</v>
+        <v>57382</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>80133</v>
+        <v>80044</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>8007</v>
+        <v>8068</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5925</v>
+        <v>5815</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>19953</v>
+        <v>20993</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>27204</v>
+        <v>26907</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>41543</v>
+        <v>40159</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>32022</v>
+        <v>30358</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>85291</v>
+        <v>84696</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>112333</v>
+        <v>113524</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>53331</v>
+        <v>53375</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>43953</v>
+        <v>44962</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>89578</v>
+        <v>90245</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>119183</v>
+        <v>116963</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>23593</v>
+        <v>23569</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>20632</v>
+        <v>20692</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>41426</v>
+        <v>42161</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>47869</v>
+        <v>46621</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>69035</v>
+        <v>70488</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>59127</v>
+        <v>56960</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>126480</v>
+        <v>124324</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>156438</v>
+        <v>158127</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>22036</v>
+        <v>21566</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>39092</v>
+        <v>39062</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>66369</v>
+        <v>65732</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>122387</v>
+        <v>124767</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>15935</v>
+        <v>16542</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>19577</v>
+        <v>19375</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>24597</v>
+        <v>23791</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>44139</v>
+        <v>43683</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>41591</v>
+        <v>41984</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>67422</v>
+        <v>63592</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>98624</v>
+        <v>97440</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>176669</v>
+        <v>174284</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>45971</v>
+        <v>45344</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>70423</v>
+        <v>71268</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>103545</v>
+        <v>102396</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>168644</v>
+        <v>170016</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>35969</v>
+        <v>37599</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>42500</v>
+        <v>42341</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>47796</v>
+        <v>48927</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>66411</v>
+        <v>66176</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>73830</v>
+        <v>74209</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>106977</v>
+        <v>103282</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>142371</v>
+        <v>143978</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>226328</v>
+        <v>226845</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>18417</v>
+        <v>16830</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>20798</v>
+        <v>20694</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>42417</v>
+        <v>41458</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>103512</v>
+        <v>101871</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>25362</v>
+        <v>24347</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>27086</v>
+        <v>27994</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>59885</v>
+        <v>59479</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>89926</v>
+        <v>87732</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>48259</v>
+        <v>46784</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>53565</v>
+        <v>53981</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>110860</v>
+        <v>110030</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>200424</v>
+        <v>198236</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>39115</v>
+        <v>37775</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>42522</v>
+        <v>43909</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>72866</v>
+        <v>71481</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>141155</v>
+        <v>140633</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>48123</v>
+        <v>47882</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>51444</v>
+        <v>53494</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>94266</v>
+        <v>93165</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>116573</v>
+        <v>116117</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>77574</v>
+        <v>78746</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>87105</v>
+        <v>86938</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>154082</v>
+        <v>152953</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>248953</v>
+        <v>247959</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>17838</v>
+        <v>18161</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>27810</v>
+        <v>24997</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>40608</v>
+        <v>41157</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>75922</v>
+        <v>74428</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>61308</v>
+        <v>60369</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>68595</v>
+        <v>67135</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>77386</v>
+        <v>78225</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>130561</v>
+        <v>129539</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>85654</v>
+        <v>84313</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>103691</v>
+        <v>103946</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>127293</v>
+        <v>124875</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>212519</v>
+        <v>211039</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>38912</v>
+        <v>39185</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>52076</v>
+        <v>51817</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>69961</v>
+        <v>68944</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>103858</v>
+        <v>102359</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>88387</v>
+        <v>89600</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>101607</v>
+        <v>101891</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>111504</v>
+        <v>111879</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>157522</v>
+        <v>158088</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>122015</v>
+        <v>120001</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>145220</v>
+        <v>147506</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>172449</v>
+        <v>169171</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>252396</v>
+        <v>253855</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>33074</v>
+        <v>32458</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>44652</v>
+        <v>44058</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>55572</v>
+        <v>54511</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>81983</v>
+        <v>81862</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>95033</v>
+        <v>97472</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>125499</v>
+        <v>124811</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>140390</v>
+        <v>141683</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>242983</v>
+        <v>243723</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>135644</v>
+        <v>136615</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>180329</v>
+        <v>175870</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>205223</v>
+        <v>203262</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>333952</v>
+        <v>335521</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>56662</v>
+        <v>55267</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>70722</v>
+        <v>70664</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>80499</v>
+        <v>80816</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>108635</v>
+        <v>110477</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>131801</v>
+        <v>135280</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>164412</v>
+        <v>165759</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>184418</v>
+        <v>185513</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>275200</v>
+        <v>274088</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>178354</v>
+        <v>179380</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>227355</v>
+        <v>227433</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>256274</v>
+        <v>255983</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>376861</v>
+        <v>378633</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>208512</v>
+        <v>209440</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>251991</v>
+        <v>252779</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>387552</v>
+        <v>388093</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>603154</v>
+        <v>603645</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>263181</v>
+        <v>263093</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>319051</v>
+        <v>317116</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>425638</v>
+        <v>429106</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>619803</v>
+        <v>622143</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>494058</v>
+        <v>490680</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>592017</v>
+        <v>589481</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>837203</v>
+        <v>837751</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1245848</v>
+        <v>1247742</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>271905</v>
+        <v>270418</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>317560</v>
+        <v>318182</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>467556</v>
+        <v>465822</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>702730</v>
+        <v>696490</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>330752</v>
+        <v>333191</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>393407</v>
+        <v>394650</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>509095</v>
+        <v>513651</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>696190</v>
+        <v>697485</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>578659</v>
+        <v>580868</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>690137</v>
+        <v>692958</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>955488</v>
+        <v>957935</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1367892</v>
+        <v>1379589</v>
       </c>
     </row>
     <row r="36">
